--- a/data/species_metadata.xlsx
+++ b/data/species_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcunning/Projects/DRM2024/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BB25A1-6BF8-E54F-8807-229D7B041DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5E1A96-B914-7D40-B2ED-6B2191D6AF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{D5AFB406-C22B-2F4F-AAB8-07025DABA21B}"/>
   </bookViews>
@@ -572,7 +572,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/species_metadata.xlsx
+++ b/data/species_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcunning/Projects/DRM2024/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosscunning/Projects/DRM2024/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5E1A96-B914-7D40-B2ED-6B2191D6AF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53833CF0-A705-4549-B941-01F96F351CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{D5AFB406-C22B-2F4F-AAB8-07025DABA21B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="55">
   <si>
     <t>Species</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t xml:space="preserve">MYCE </t>
+  </si>
+  <si>
+    <t>OFRA</t>
   </si>
 </sst>
 </file>
@@ -569,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610B4843-1A22-CE44-BF5C-49505C673594}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1122,6 +1125,23 @@
         <v>39</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/species_metadata.xlsx
+++ b/data/species_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosscunning/Projects/DRM2024/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53833CF0-A705-4549-B941-01F96F351CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266C5867-F35E-4C49-85BD-98265C756A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{D5AFB406-C22B-2F4F-AAB8-07025DABA21B}"/>
+    <workbookView xWindow="-35420" yWindow="2540" windowWidth="28040" windowHeight="17440" xr2:uid="{D5AFB406-C22B-2F4F-AAB8-07025DABA21B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="62">
   <si>
     <t>Species</t>
   </si>
@@ -179,12 +179,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>n_FL_sym</t>
-  </si>
-  <si>
-    <t>FL_Sym</t>
-  </si>
-  <si>
     <t>A,C,D</t>
   </si>
   <si>
@@ -201,6 +195,33 @@
   </si>
   <si>
     <t>OFRA</t>
+  </si>
+  <si>
+    <t>dom_sym</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>BCD</t>
+  </si>
+  <si>
+    <t>dom_sym_ref</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>ACD</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>most_dom_sym</t>
   </si>
 </sst>
 </file>
@@ -572,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610B4843-1A22-CE44-BF5C-49505C673594}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -588,7 +609,7 @@
     <col min="7" max="7" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,13 +632,16 @@
         <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -636,8 +660,14 @@
       <c r="G2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -656,8 +686,14 @@
       <c r="G3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -676,8 +712,14 @@
       <c r="G4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -691,13 +733,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -714,13 +762,19 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -739,8 +793,14 @@
       <c r="G7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -759,8 +819,14 @@
       <c r="G8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -782,8 +848,14 @@
       <c r="G9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -802,8 +874,14 @@
       <c r="G10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -822,8 +900,14 @@
       <c r="G11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -842,8 +926,14 @@
       <c r="G12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -862,8 +952,14 @@
       <c r="G13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -879,8 +975,14 @@
       <c r="F14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -899,8 +1001,14 @@
       <c r="G15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -919,8 +1027,14 @@
       <c r="G16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -934,13 +1048,19 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -959,8 +1079,14 @@
       <c r="G18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -974,13 +1100,19 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -999,8 +1131,14 @@
       <c r="G20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1019,8 +1157,14 @@
       <c r="G21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1039,8 +1183,14 @@
       <c r="G22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1056,10 +1206,16 @@
       <c r="F23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1073,10 +1229,13 @@
       <c r="F24" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -1090,10 +1249,16 @@
       <c r="F25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -1107,8 +1272,14 @@
       <c r="F26" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1124,10 +1295,13 @@
       <c r="F27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -1140,6 +1314,12 @@
       </c>
       <c r="F28" t="s">
         <v>37</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/species_metadata.xlsx
+++ b/data/species_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosscunning/Projects/DRM2024/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266C5867-F35E-4C49-85BD-98265C756A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAF1A0E-FA18-9E42-A6A3-6AFA9BFBA81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35420" yWindow="2540" windowWidth="28040" windowHeight="17440" xr2:uid="{D5AFB406-C22B-2F4F-AAB8-07025DABA21B}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
